--- a/test_individu_al.xlsx
+++ b/test_individu_al.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
   <si>
     <t>Iterasi10</t>
   </si>
@@ -62,15 +62,6 @@
   </si>
   <si>
     <t>Query ke 8</t>
-  </si>
-  <si>
-    <t>Query ke 9</t>
-  </si>
-  <si>
-    <t>Query ke 10</t>
-  </si>
-  <si>
-    <t>Query ke 11</t>
   </si>
 </sst>
 </file>
@@ -420,13 +411,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:BB8"/>
+  <dimension ref="A2:AM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +427,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:39">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -444,7 +435,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:39">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -493,26 +484,8 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
-      <c r="AO4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AT4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AY4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -609,447 +582,303 @@
       <c r="AM5" t="s">
         <v>5</v>
       </c>
-      <c r="AO5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>54.37499999999999</v>
+        <v>65.59139784946237</v>
       </c>
       <c r="C6">
-        <v>94.56521739130434</v>
+        <v>66.30434782608695</v>
       </c>
       <c r="D6">
-        <v>69.04761904761905</v>
+        <v>65.94594594594594</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
       <c r="G6">
-        <v>53.01204819277109</v>
+        <v>75.86206896551724</v>
       </c>
       <c r="H6">
-        <v>95.65217391304348</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="I6">
-        <v>68.21705426356588</v>
+        <v>58.66666666666666</v>
       </c>
       <c r="K6" t="s">
         <v>6</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>77.33333333333333</v>
       </c>
       <c r="M6">
-        <v>98.91304347826086</v>
+        <v>63.04347826086957</v>
       </c>
       <c r="N6">
-        <v>66.42335766423358</v>
+        <v>69.46107784431138</v>
       </c>
       <c r="P6" t="s">
         <v>6</v>
       </c>
       <c r="Q6">
-        <v>51.13636363636363</v>
+        <v>71.17117117117117</v>
       </c>
       <c r="R6">
-        <v>97.82608695652173</v>
+        <v>85.86956521739131</v>
       </c>
       <c r="S6">
-        <v>67.16417910447761</v>
+        <v>77.83251231527095</v>
       </c>
       <c r="U6" t="s">
         <v>6</v>
       </c>
       <c r="V6">
-        <v>52.94117647058824</v>
+        <v>61.87050359712231</v>
       </c>
       <c r="W6">
-        <v>97.82608695652173</v>
+        <v>93.47826086956522</v>
       </c>
       <c r="X6">
-        <v>68.70229007633587</v>
+        <v>74.45887445887446</v>
       </c>
       <c r="Z6" t="s">
         <v>6</v>
       </c>
       <c r="AA6">
-        <v>60.41666666666666</v>
+        <v>71.28712871287128</v>
       </c>
       <c r="AB6">
-        <v>94.56521739130434</v>
+        <v>78.26086956521739</v>
       </c>
       <c r="AC6">
-        <v>73.72881355932203</v>
+        <v>74.61139896373055</v>
       </c>
       <c r="AE6" t="s">
         <v>6</v>
       </c>
       <c r="AF6">
-        <v>62.58992805755395</v>
+        <v>72.81553398058253</v>
       </c>
       <c r="AG6">
-        <v>94.56521739130434</v>
+        <v>81.52173913043478</v>
       </c>
       <c r="AH6">
-        <v>75.32467532467531</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="AJ6" t="s">
         <v>6</v>
       </c>
       <c r="AK6">
-        <v>73.46938775510205</v>
+        <v>72.81553398058253</v>
       </c>
       <c r="AL6">
-        <v>78.26086956521739</v>
+        <v>81.52173913043478</v>
       </c>
       <c r="AM6">
-        <v>75.78947368421053</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP6">
-        <v>71.56862745098039</v>
-      </c>
-      <c r="AQ6">
-        <v>79.34782608695652</v>
-      </c>
-      <c r="AR6">
-        <v>75.25773195876289</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AU6">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="AV6">
-        <v>81.52173913043478</v>
-      </c>
-      <c r="AW6">
-        <v>76.14213197969544</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AZ6">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="BA6">
-        <v>81.52173913043478</v>
-      </c>
-      <c r="BB6">
-        <v>76.14213197969544</v>
+        <v>76.92307692307693</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>57.14285714285714</v>
+        <v>37.5</v>
       </c>
       <c r="C7">
-        <v>40.67796610169492</v>
+        <v>71.1864406779661</v>
       </c>
       <c r="D7">
-        <v>47.52475247524753</v>
+        <v>49.12280701754387</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
       </c>
       <c r="G7">
-        <v>62.85714285714285</v>
+        <v>34.35114503816794</v>
       </c>
       <c r="H7">
-        <v>37.28813559322034</v>
+        <v>76.27118644067797</v>
       </c>
       <c r="I7">
-        <v>46.80851063829788</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="K7" t="s">
         <v>7</v>
       </c>
       <c r="L7">
-        <v>65</v>
+        <v>36.60714285714285</v>
       </c>
       <c r="M7">
-        <v>22.03389830508474</v>
+        <v>69.49152542372882</v>
       </c>
       <c r="N7">
-        <v>32.91139240506329</v>
+        <v>47.95321637426901</v>
       </c>
       <c r="P7" t="s">
         <v>7</v>
       </c>
       <c r="Q7">
-        <v>58.82352941176471</v>
+        <v>45.67901234567901</v>
       </c>
       <c r="R7">
-        <v>16.94915254237288</v>
+        <v>62.71186440677966</v>
       </c>
       <c r="S7">
-        <v>26.31578947368421</v>
+        <v>52.85714285714286</v>
       </c>
       <c r="U7" t="s">
         <v>7</v>
       </c>
       <c r="V7">
-        <v>56.52173913043478</v>
+        <v>51.92307692307693</v>
       </c>
       <c r="W7">
-        <v>22.03389830508474</v>
+        <v>45.76271186440678</v>
       </c>
       <c r="X7">
-        <v>31.70731707317073</v>
+        <v>48.64864864864865</v>
       </c>
       <c r="Z7" t="s">
         <v>7</v>
       </c>
       <c r="AA7">
-        <v>52.17391304347826</v>
+        <v>42.39130434782609</v>
       </c>
       <c r="AB7">
-        <v>40.67796610169492</v>
+        <v>66.10169491525424</v>
       </c>
       <c r="AC7">
-        <v>45.71428571428572</v>
+        <v>51.65562913907286</v>
       </c>
       <c r="AE7" t="s">
         <v>7</v>
       </c>
       <c r="AF7">
-        <v>53.57142857142857</v>
+        <v>43.15789473684211</v>
       </c>
       <c r="AG7">
-        <v>50.84745762711864</v>
+        <v>69.49152542372882</v>
       </c>
       <c r="AH7">
-        <v>52.17391304347826</v>
+        <v>53.24675324675325</v>
       </c>
       <c r="AJ7" t="s">
         <v>7</v>
       </c>
       <c r="AK7">
-        <v>39.78494623655914</v>
+        <v>43.15789473684211</v>
       </c>
       <c r="AL7">
-        <v>62.71186440677966</v>
+        <v>69.49152542372882</v>
       </c>
       <c r="AM7">
-        <v>48.68421052631579</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP7">
-        <v>39.36170212765958</v>
-      </c>
-      <c r="AQ7">
-        <v>62.71186440677966</v>
-      </c>
-      <c r="AR7">
-        <v>48.36601307189542</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU7">
-        <v>41.48936170212766</v>
-      </c>
-      <c r="AV7">
-        <v>66.10169491525424</v>
-      </c>
-      <c r="AW7">
-        <v>50.98039215686276</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ7">
-        <v>41.48936170212766</v>
-      </c>
-      <c r="BA7">
-        <v>66.10169491525424</v>
-      </c>
-      <c r="BB7">
-        <v>50.98039215686276</v>
+        <v>53.24675324675325</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>93.93939393939394</v>
+        <v>95.34883720930233</v>
       </c>
       <c r="C8">
-        <v>67.75956284153006</v>
+        <v>67.21311475409836</v>
       </c>
       <c r="D8">
-        <v>78.73015873015873</v>
+        <v>78.84615384615384</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="G8">
-        <v>93.98496240601504</v>
+        <v>92.41379310344827</v>
       </c>
       <c r="H8">
-        <v>68.30601092896174</v>
+        <v>73.224043715847</v>
       </c>
       <c r="I8">
-        <v>79.11392405063292</v>
+        <v>81.70731707317074</v>
       </c>
       <c r="K8" t="s">
         <v>8</v>
       </c>
       <c r="L8">
-        <v>94.6969696969697</v>
+        <v>89.1156462585034</v>
       </c>
       <c r="M8">
-        <v>68.30601092896174</v>
+        <v>71.58469945355192</v>
       </c>
       <c r="N8">
-        <v>79.36507936507937</v>
+        <v>79.39393939393939</v>
       </c>
       <c r="P8" t="s">
         <v>8</v>
       </c>
       <c r="Q8">
-        <v>91.48936170212765</v>
+        <v>91.54929577464789</v>
       </c>
       <c r="R8">
-        <v>70.49180327868852</v>
+        <v>71.03825136612022</v>
       </c>
       <c r="S8">
-        <v>79.62962962962963</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s">
         <v>8</v>
       </c>
       <c r="V8">
-        <v>92.19858156028369</v>
+        <v>91.6083916083916</v>
       </c>
       <c r="W8">
-        <v>71.03825136612022</v>
+        <v>71.58469945355192</v>
       </c>
       <c r="X8">
-        <v>80.24691358024691</v>
+        <v>80.3680981595092</v>
       </c>
       <c r="Z8" t="s">
         <v>8</v>
       </c>
       <c r="AA8">
-        <v>91.66666666666666</v>
+        <v>90.78014184397163</v>
       </c>
       <c r="AB8">
-        <v>72.1311475409836</v>
+        <v>69.94535519125684</v>
       </c>
       <c r="AC8">
-        <v>80.73394495412843</v>
+        <v>79.01234567901236</v>
       </c>
       <c r="AE8" t="s">
         <v>8</v>
       </c>
       <c r="AF8">
-        <v>92.80575539568345</v>
+        <v>94.11764705882352</v>
       </c>
       <c r="AG8">
-        <v>70.49180327868852</v>
+        <v>69.94535519125684</v>
       </c>
       <c r="AH8">
-        <v>80.12422360248446</v>
+        <v>80.25078369905955</v>
       </c>
       <c r="AJ8" t="s">
         <v>8</v>
       </c>
       <c r="AK8">
-        <v>91.6083916083916</v>
+        <v>94.11764705882352</v>
       </c>
       <c r="AL8">
-        <v>71.58469945355192</v>
+        <v>69.94535519125684</v>
       </c>
       <c r="AM8">
-        <v>80.3680981595092</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP8">
-        <v>92.7536231884058</v>
-      </c>
-      <c r="AQ8">
-        <v>69.94535519125684</v>
-      </c>
-      <c r="AR8">
-        <v>79.75077881619937</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU8">
-        <v>94.07407407407408</v>
-      </c>
-      <c r="AV8">
-        <v>69.39890710382514</v>
-      </c>
-      <c r="AW8">
-        <v>79.87421383647798</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ8">
-        <v>94.07407407407408</v>
-      </c>
-      <c r="BA8">
-        <v>69.39890710382514</v>
-      </c>
-      <c r="BB8">
-        <v>79.87421383647798</v>
+        <v>80.25078369905955</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="A2:F3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="F4:I4"/>
@@ -1059,9 +888,6 @@
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AE4:AH4"/>
     <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AO4:AR4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AY4:BB4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
